--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8445FE5A-7BA3-4406-A25F-293977B8C040}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{708B29FF-C755-402D-A518-4EAF5CDDEFD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="281">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3566,25 +3569,25 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>275</v>
       </c>
       <c r="B211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B212" t="s">
         <v>99</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>275</v>
-      </c>
-      <c r="B212" t="s">
-        <v>106</v>
-      </c>
-      <c r="C212" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3595,10 @@
         <v>275</v>
       </c>
       <c r="B213" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C213" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,32 +3606,32 @@
         <v>275</v>
       </c>
       <c r="B214" t="s">
+        <v>107</v>
+      </c>
+      <c r="C214" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>275</v>
+      </c>
+      <c r="B215" t="s">
         <v>110</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B215" t="s">
-        <v>118</v>
-      </c>
-      <c r="C215" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B216" t="s">
         <v>118</v>
       </c>
       <c r="C216" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3639,29 +3642,29 @@
         <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>275</v>
       </c>
       <c r="B218" t="s">
         <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B219" t="s">
         <v>118</v>
       </c>
       <c r="C219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,10 +3672,10 @@
         <v>275</v>
       </c>
       <c r="B220" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C220" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,10 +3683,10 @@
         <v>275</v>
       </c>
       <c r="B221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,10 +3694,10 @@
         <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C222" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,10 +3705,10 @@
         <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C223" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,10 +3716,10 @@
         <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C224" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,10 +3727,10 @@
         <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C225" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,10 +3738,10 @@
         <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C226" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,10 +3749,10 @@
         <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C227" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,10 +3760,10 @@
         <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C228" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,10 +3771,10 @@
         <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C229" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,10 +3782,10 @@
         <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C230" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,10 +3793,10 @@
         <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,10 +3804,10 @@
         <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C232" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,10 +3815,10 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C233" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,7 +3829,7 @@
         <v>248</v>
       </c>
       <c r="C234" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,7 +3840,7 @@
         <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,7 +3851,7 @@
         <v>248</v>
       </c>
       <c r="C236" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,7 +3862,7 @@
         <v>248</v>
       </c>
       <c r="C237" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3873,7 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,21 +3881,21 @@
         <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3903,7 +3906,7 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3917,7 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +3928,7 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3936,7 +3939,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +3961,7 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3969,7 +3972,7 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,10 +3980,10 @@
         <v>276</v>
       </c>
       <c r="B248" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,10 +3991,10 @@
         <v>276</v>
       </c>
       <c r="B249" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="C249" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,21 +4002,21 @@
         <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C250" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>276</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>277</v>
+      <c r="B251" t="s">
+        <v>202</v>
+      </c>
+      <c r="C251" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,10 +4024,10 @@
         <v>276</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,21 +4035,21 @@
         <v>276</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>274</v>
-      </c>
-      <c r="B254" t="s">
-        <v>6</v>
-      </c>
-      <c r="C254" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,10 +4057,10 @@
         <v>274</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,10 +4068,10 @@
         <v>274</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C256" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,10 +4079,10 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C257" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,54 +4090,54 @@
         <v>274</v>
       </c>
       <c r="B258" t="s">
+        <v>57</v>
+      </c>
+      <c r="C258" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>274</v>
+      </c>
+      <c r="B259" t="s">
         <v>92</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>96</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C260" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>274</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>108</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>118</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>274</v>
-      </c>
-      <c r="B262" t="s">
-        <v>139</v>
-      </c>
-      <c r="C262" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,10 +4145,10 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C263" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,7 +4159,7 @@
         <v>188</v>
       </c>
       <c r="C264" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4167,7 +4170,7 @@
         <v>188</v>
       </c>
       <c r="C265" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,10 +4178,10 @@
         <v>274</v>
       </c>
       <c r="B266" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C266" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +4189,10 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C267" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +4200,10 @@
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C268" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +4211,10 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C269" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,16 +4222,27 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
+        <v>259</v>
+      </c>
+      <c r="C270" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" t="s">
         <v>261</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C271" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C270">
-    <sortCondition ref="A2:A270"/>
-    <sortCondition ref="B2:B270"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
+    <sortCondition ref="A2:A271"/>
+    <sortCondition ref="B2:B271"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{708B29FF-C755-402D-A518-4EAF5CDDEFD3}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E48B27A-726C-4D39-B1A6-B5EC94BCF1E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="282">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>Nunavut</t>
+  </si>
+  <si>
+    <t>Repatriated Travellers</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3580,25 +3583,25 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>275</v>
       </c>
       <c r="B212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B213" t="s">
         <v>99</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>275</v>
-      </c>
-      <c r="B213" t="s">
-        <v>106</v>
-      </c>
-      <c r="C213" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,10 +3609,10 @@
         <v>275</v>
       </c>
       <c r="B214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3617,32 +3620,32 @@
         <v>275</v>
       </c>
       <c r="B215" t="s">
+        <v>107</v>
+      </c>
+      <c r="C215" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>275</v>
+      </c>
+      <c r="B216" t="s">
         <v>110</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B216" t="s">
-        <v>118</v>
-      </c>
-      <c r="C216" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B217" t="s">
         <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,29 +3656,29 @@
         <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>275</v>
       </c>
       <c r="B219" t="s">
         <v>118</v>
       </c>
       <c r="C219" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B220" t="s">
         <v>118</v>
       </c>
       <c r="C220" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3683,10 +3686,10 @@
         <v>275</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C221" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,10 +3697,10 @@
         <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C222" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3705,10 +3708,10 @@
         <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C223" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,10 +3719,10 @@
         <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C224" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,10 +3730,10 @@
         <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C225" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,10 +3741,10 @@
         <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C226" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,10 +3752,10 @@
         <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C227" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,10 +3763,10 @@
         <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C228" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,10 +3774,10 @@
         <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C229" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,10 +3785,10 @@
         <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C230" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,10 +3796,10 @@
         <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,10 +3807,10 @@
         <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,10 +3818,10 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,10 +3829,10 @@
         <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C234" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
         <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3851,7 +3854,7 @@
         <v>248</v>
       </c>
       <c r="C236" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3862,7 +3865,7 @@
         <v>248</v>
       </c>
       <c r="C237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3873,7 +3876,7 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3884,7 +3887,7 @@
         <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,21 +3895,21 @@
         <v>275</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C240" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3917,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3928,7 +3931,7 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3939,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3950,7 +3953,7 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3961,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3972,7 +3975,7 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3983,7 +3986,7 @@
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3991,10 +3994,10 @@
         <v>276</v>
       </c>
       <c r="B249" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,10 +4005,10 @@
         <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="C250" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,21 +4016,21 @@
         <v>276</v>
       </c>
       <c r="B251" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C251" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>276</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>277</v>
+      <c r="B252" t="s">
+        <v>202</v>
+      </c>
+      <c r="C252" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4035,10 +4038,10 @@
         <v>276</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,21 +4049,21 @@
         <v>276</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>274</v>
-      </c>
-      <c r="B255" t="s">
-        <v>6</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4068,10 +4071,10 @@
         <v>274</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4079,10 +4082,10 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4090,10 +4093,10 @@
         <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C258" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4101,54 +4104,54 @@
         <v>274</v>
       </c>
       <c r="B259" t="s">
+        <v>57</v>
+      </c>
+      <c r="C259" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>274</v>
+      </c>
+      <c r="B260" t="s">
         <v>92</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C260" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>96</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>274</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>108</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>118</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C263" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>274</v>
-      </c>
-      <c r="B263" t="s">
-        <v>139</v>
-      </c>
-      <c r="C263" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,10 +4159,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C264" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4170,7 +4173,7 @@
         <v>188</v>
       </c>
       <c r="C265" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4181,7 +4184,7 @@
         <v>188</v>
       </c>
       <c r="C266" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4189,10 +4192,10 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C267" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4200,10 +4203,10 @@
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4211,10 +4214,10 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C269" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4222,10 +4225,10 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C270" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,16 +4236,27 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
+        <v>259</v>
+      </c>
+      <c r="C271" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" t="s">
         <v>261</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C272" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
-    <sortCondition ref="A2:A271"/>
-    <sortCondition ref="B2:B271"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
+    <sortCondition ref="A2:A272"/>
+    <sortCondition ref="B2:B272"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E48B27A-726C-4D39-B1A6-B5EC94BCF1E8}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABDCDA38-7E7E-40F3-8A73-A0296CDFEAF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="283">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t>Repatriated Travellers</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
 </sst>
 </file>
@@ -1250,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4068,13 +4071,13 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>274</v>
-      </c>
-      <c r="B256" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4082,10 +4085,10 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4093,10 +4096,10 @@
         <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,10 +4107,10 @@
         <v>274</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C259" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4115,54 +4118,54 @@
         <v>274</v>
       </c>
       <c r="B260" t="s">
+        <v>57</v>
+      </c>
+      <c r="C260" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>274</v>
+      </c>
+      <c r="B261" t="s">
         <v>92</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>96</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>274</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>108</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C263" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>118</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C264" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>274</v>
-      </c>
-      <c r="B264" t="s">
-        <v>139</v>
-      </c>
-      <c r="C264" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4170,10 +4173,10 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C265" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4184,7 +4187,7 @@
         <v>188</v>
       </c>
       <c r="C266" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,7 +4198,7 @@
         <v>188</v>
       </c>
       <c r="C267" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4203,10 +4206,10 @@
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C268" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4214,10 +4217,10 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C269" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4225,10 +4228,10 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C270" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4236,10 +4239,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C271" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4247,16 +4250,27 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
+        <v>259</v>
+      </c>
+      <c r="C272" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
         <v>261</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C273" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C272">
-    <sortCondition ref="A2:A272"/>
-    <sortCondition ref="B2:B272"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
+    <sortCondition ref="A2:A273"/>
+    <sortCondition ref="B2:B273"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABDCDA38-7E7E-40F3-8A73-A0296CDFEAF9}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BE76594-5CE4-46C6-8178-6D4ED4FF2628}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
   <dimension ref="A1:C273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1302,10 @@
         <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,10 +1313,10 @@
         <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
         <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,10 +1368,10 @@
         <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,21 +1379,21 @@
         <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,10 +1423,10 @@
         <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,10 +1434,10 @@
         <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,10 +1467,10 @@
         <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +1478,10 @@
         <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,10 +1489,10 @@
         <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1500,10 @@
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1522,10 @@
         <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1533,10 @@
         <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,10 +1544,10 @@
         <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,10 +1555,10 @@
         <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,32 +1566,32 @@
         <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>273</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,10 +1599,10 @@
         <v>273</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,21 +1610,21 @@
         <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>273</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,10 +1632,10 @@
         <v>273</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,10 +1643,10 @@
         <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1654,10 @@
         <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,10 +1665,10 @@
         <v>273</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,10 +1676,10 @@
         <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,10 +1687,10 @@
         <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,10 +1698,10 @@
         <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1709,10 @@
         <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,21 +1731,21 @@
         <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,21 +1753,21 @@
         <v>273</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>273</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,10 +1775,10 @@
         <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,10 +1797,10 @@
         <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,10 +1808,10 @@
         <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,10 +1819,10 @@
         <v>273</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,10 +1830,10 @@
         <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,10 +1841,10 @@
         <v>273</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,21 +1852,21 @@
         <v>273</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,43 +1874,43 @@
         <v>273</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>273</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,10 +1918,10 @@
         <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,10 +1929,10 @@
         <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>271</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,10 +1951,10 @@
         <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,10 +1962,10 @@
         <v>271</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,10 +1973,10 @@
         <v>271</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,10 +1984,10 @@
         <v>271</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2009,7 +2009,7 @@
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,7 +2042,7 @@
         <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2075,7 +2075,7 @@
         <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
         <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
         <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
         <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
         <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,7 +2273,7 @@
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>58</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,10 +2336,10 @@
         <v>271</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,10 +2347,10 @@
         <v>271</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,10 +2358,10 @@
         <v>271</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,10 +2369,10 @@
         <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,10 +2380,10 @@
         <v>271</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,10 +2391,10 @@
         <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,10 +2402,10 @@
         <v>271</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,10 +2413,10 @@
         <v>271</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,10 +2424,10 @@
         <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,10 +2435,10 @@
         <v>271</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,10 +2446,10 @@
         <v>271</v>
       </c>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,10 +2457,10 @@
         <v>271</v>
       </c>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,10 +2468,10 @@
         <v>271</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,10 +2479,10 @@
         <v>271</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,10 +2490,10 @@
         <v>271</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
         <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,10 +2512,10 @@
         <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,10 +2523,10 @@
         <v>271</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,10 +2534,10 @@
         <v>271</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,10 +2545,10 @@
         <v>271</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C117" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,10 +2556,10 @@
         <v>271</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,10 +2567,10 @@
         <v>271</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,10 +2578,10 @@
         <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,10 +2589,10 @@
         <v>271</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2600,10 +2600,10 @@
         <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,10 +2611,10 @@
         <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,10 +2622,10 @@
         <v>271</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C124" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,10 +2633,10 @@
         <v>271</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,10 +2644,10 @@
         <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,10 +2655,10 @@
         <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2666,10 +2666,10 @@
         <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2677,10 +2677,10 @@
         <v>271</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,10 +2688,10 @@
         <v>271</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,10 +2699,10 @@
         <v>271</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,10 +2710,10 @@
         <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,10 +2721,10 @@
         <v>271</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2732,10 +2732,10 @@
         <v>271</v>
       </c>
       <c r="B134" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C134" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,10 +2743,10 @@
         <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,54 +2754,54 @@
         <v>271</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C138" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,10 +2809,10 @@
         <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,10 +2820,10 @@
         <v>272</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2831,10 +2831,10 @@
         <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,10 +2842,10 @@
         <v>272</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,10 +2853,10 @@
         <v>272</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,10 +2864,10 @@
         <v>272</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2875,21 +2875,21 @@
         <v>272</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,21 +2897,21 @@
         <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>272</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C150" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,10 +2919,10 @@
         <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C151" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,10 +2930,10 @@
         <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C152" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,51 +2944,51 @@
         <v>102</v>
       </c>
       <c r="C153" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C154" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C155" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C156" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C157" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,10 +2996,10 @@
         <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C158" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,10 +3007,10 @@
         <v>272</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,10 +3018,10 @@
         <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,10 +3029,10 @@
         <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C161" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,10 +3040,10 @@
         <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C162" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,10 +3051,10 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C163" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,10 +3062,10 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C164" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,10 +3073,10 @@
         <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,10 +3084,10 @@
         <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,10 +3095,10 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,10 +3106,10 @@
         <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,10 +3117,10 @@
         <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,10 +3128,10 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C170" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,10 +3139,10 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,10 +3150,10 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C172" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,10 +3161,10 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C173" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,10 +3172,10 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,10 +3183,10 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,10 +3194,10 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,10 +3205,10 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C177" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,10 +3216,10 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3227,10 +3227,10 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3238,10 +3238,10 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C180" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,10 +3249,10 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3260,10 +3260,10 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C182" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3271,10 +3271,10 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C183" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3282,10 +3282,10 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C184" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3293,10 +3293,10 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C185" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3304,10 +3304,10 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C186" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3315,10 +3315,10 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C187" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,10 +3326,10 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C188" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3337,10 +3337,10 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C189" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>248</v>
       </c>
       <c r="C190" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,29 +3362,29 @@
         <v>248</v>
       </c>
       <c r="C191" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B192" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B193" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3392,10 +3392,10 @@
         <v>275</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,10 +3403,10 @@
         <v>275</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3414,10 +3414,10 @@
         <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,8 +3559,8 @@
       <c r="B209" t="s">
         <v>40</v>
       </c>
-      <c r="C209" t="s">
-        <v>53</v>
+      <c r="C209" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,19 +3570,19 @@
       <c r="B210" t="s">
         <v>40</v>
       </c>
-      <c r="C210" t="s">
-        <v>54</v>
+      <c r="C210" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B211" t="s">
-        <v>40</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>280</v>
+        <v>99</v>
+      </c>
+      <c r="C211" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,21 +3590,21 @@
         <v>275</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>281</v>
+        <v>106</v>
+      </c>
+      <c r="C212" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>275</v>
       </c>
       <c r="B213" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C213" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,21 +3612,21 @@
         <v>275</v>
       </c>
       <c r="B214" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C214" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C215" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3634,32 +3634,32 @@
         <v>275</v>
       </c>
       <c r="B216" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C216" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>275</v>
       </c>
       <c r="B217" t="s">
         <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B218" t="s">
         <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,18 +3670,18 @@
         <v>118</v>
       </c>
       <c r="C219" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>275</v>
       </c>
       <c r="B220" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C220" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,10 +3689,10 @@
         <v>275</v>
       </c>
       <c r="B221" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C221" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3700,10 +3700,10 @@
         <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C222" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3711,10 +3711,10 @@
         <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C223" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3722,10 +3722,10 @@
         <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C224" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3733,10 +3733,10 @@
         <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="C225" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,10 +3744,10 @@
         <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C226" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,10 +3755,10 @@
         <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,10 +3766,10 @@
         <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C228" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3777,10 +3777,10 @@
         <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C229" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,10 +3788,10 @@
         <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C230" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3799,10 +3799,10 @@
         <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C231" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3810,10 +3810,10 @@
         <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C232" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3821,10 +3821,10 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C233" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3832,10 +3832,10 @@
         <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C234" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
         <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>248</v>
       </c>
       <c r="C236" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>248</v>
       </c>
       <c r="C237" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3887,32 +3887,32 @@
         <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C239" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B240" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,7 +3923,7 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3986,10 +3986,10 @@
         <v>276</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3997,10 +3997,10 @@
         <v>276</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4008,32 +4008,32 @@
         <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="C250" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>276</v>
       </c>
-      <c r="B251" t="s">
-        <v>193</v>
-      </c>
-      <c r="C251" t="s">
-        <v>193</v>
+      <c r="B251" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>276</v>
       </c>
-      <c r="B252" t="s">
-        <v>202</v>
-      </c>
-      <c r="C252" t="s">
-        <v>202</v>
+      <c r="B252" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4041,10 +4041,10 @@
         <v>276</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4052,32 +4052,32 @@
         <v>276</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>276</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>276</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="B256" t="s">
+        <v>28</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4085,10 +4085,10 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4096,10 +4096,10 @@
         <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4107,21 +4107,21 @@
         <v>274</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C259" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B260" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C260" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,10 +4129,10 @@
         <v>274</v>
       </c>
       <c r="B261" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C261" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,10 +4140,10 @@
         <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C262" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,21 +4151,21 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C263" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C264" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,10 +4173,10 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C265" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
         <v>188</v>
       </c>
       <c r="C266" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,10 +4195,10 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C267" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4206,10 +4206,10 @@
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C268" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,10 +4217,10 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C269" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="C270" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4239,10 +4239,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C271" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,10 +4250,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="C272" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,16 +4261,16 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C273" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
-    <sortCondition ref="A2:A273"/>
-    <sortCondition ref="B2:B273"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
+    <sortCondition ref="A2:A271"/>
+    <sortCondition ref="B2:B271"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BE76594-5CE4-46C6-8178-6D4ED4FF2628}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2B20852-88ED-46D6-8EA9-9651A61B5C91}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="285">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>Samoa</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4060,24 +4066,24 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>274</v>
-      </c>
-      <c r="B255" t="s">
-        <v>6</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>274</v>
-      </c>
-      <c r="B256" t="s">
-        <v>28</v>
-      </c>
-      <c r="C256" t="s">
-        <v>28</v>
+        <v>276</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4085,10 +4091,10 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4096,10 +4102,10 @@
         <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4107,21 +4113,21 @@
         <v>274</v>
       </c>
       <c r="B259" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C259" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>274</v>
       </c>
       <c r="B260" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C260" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,10 +4135,10 @@
         <v>274</v>
       </c>
       <c r="B261" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C261" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,10 +4146,10 @@
         <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C262" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,21 +4157,21 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C263" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="C264" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,10 +4179,10 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C265" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,7 +4193,7 @@
         <v>188</v>
       </c>
       <c r="C266" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,10 +4201,10 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C267" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4206,10 +4212,10 @@
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C268" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,10 +4223,10 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C269" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4228,10 +4234,10 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="C270" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4239,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C271" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,10 +4256,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,16 +4267,38 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
+        <v>261</v>
+      </c>
+      <c r="C273" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
         <v>231</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C275" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C271">
-    <sortCondition ref="A2:A271"/>
-    <sortCondition ref="B2:B271"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
+    <sortCondition ref="A2:A273"/>
+    <sortCondition ref="B2:B273"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2B20852-88ED-46D6-8EA9-9651A61B5C91}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37B14EC-0556-4589-B3F9-160687E9ECDE}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="291">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -888,6 +888,24 @@
   </si>
   <si>
     <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Summer Olympics 2020</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1286,10 +1304,10 @@
         <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1315,10 @@
         <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,10 +1326,10 @@
         <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,10 +1337,10 @@
         <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,10 +1348,10 @@
         <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,10 +1359,10 @@
         <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,10 +1370,10 @@
         <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,10 +1381,10 @@
         <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,10 +1392,10 @@
         <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,21 +1403,21 @@
         <v>273</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,10 +1425,10 @@
         <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,10 +1436,10 @@
         <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,10 +1447,10 @@
         <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,10 +1458,10 @@
         <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,10 +1469,10 @@
         <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1480,10 @@
         <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,10 +1491,10 @@
         <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1502,10 @@
         <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,10 +1513,10 @@
         <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,10 +1524,10 @@
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,7 +1538,7 @@
         <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,10 +1546,10 @@
         <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,10 +1557,10 @@
         <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1568,10 @@
         <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,10 +1579,10 @@
         <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,32 +1590,32 @@
         <v>273</v>
       </c>
       <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" t="s">
         <v>138</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" t="s">
         <v>156</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,10 +1623,10 @@
         <v>273</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,21 +1634,21 @@
         <v>273</v>
       </c>
       <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" t="s">
         <v>166</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,10 +1656,10 @@
         <v>273</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,10 +1667,10 @@
         <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,10 +1678,10 @@
         <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1671,10 +1689,10 @@
         <v>273</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,10 +1700,10 @@
         <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,10 +1711,10 @@
         <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,10 +1722,10 @@
         <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1715,10 +1733,10 @@
         <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +1744,10 @@
         <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1737,21 +1755,21 @@
         <v>273</v>
       </c>
       <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" t="s">
         <v>211</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,21 +1777,21 @@
         <v>273</v>
       </c>
       <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" t="s">
         <v>218</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,10 +1799,10 @@
         <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,10 +1810,10 @@
         <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +1821,10 @@
         <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +1832,10 @@
         <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +1843,10 @@
         <v>273</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,10 +1854,10 @@
         <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,10 +1865,10 @@
         <v>273</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,32 +1876,32 @@
         <v>273</v>
       </c>
       <c r="B54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
         <v>245</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" t="s">
         <v>264</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>273</v>
-      </c>
-      <c r="B56" t="s">
-        <v>266</v>
-      </c>
-      <c r="C56" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,21 +1909,21 @@
         <v>273</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1931,10 @@
         <v>271</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1942,10 @@
         <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1953,10 @@
         <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1964,10 @@
         <v>271</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1975,10 @@
         <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,10 +1986,10 @@
         <v>271</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +1997,10 @@
         <v>271</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,8 +2010,8 @@
       <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="C66" t="s">
-        <v>60</v>
+      <c r="C66" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2022,7 @@
         <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,7 +2033,7 @@
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,7 +2044,7 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,7 +2055,7 @@
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2066,7 @@
         <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,7 +2077,7 @@
         <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2088,7 @@
         <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,7 +2099,7 @@
         <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +2110,7 @@
         <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,7 +2121,7 @@
         <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,7 +2132,7 @@
         <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,7 +2143,7 @@
         <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,7 +2154,7 @@
         <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,7 +2165,7 @@
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2187,7 @@
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,7 +2198,7 @@
         <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2209,7 @@
         <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,7 +2220,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,7 +2231,7 @@
         <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,7 +2242,7 @@
         <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,7 +2253,7 @@
         <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,7 +2264,7 @@
         <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,7 +2275,7 @@
         <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,7 +2297,7 @@
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,7 +2308,7 @@
         <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,7 +2319,7 @@
         <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,7 +2330,7 @@
         <v>58</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,7 +2341,7 @@
         <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,7 +2352,7 @@
         <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2360,10 @@
         <v>271</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2371,10 @@
         <v>271</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +2382,10 @@
         <v>271</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,10 +2393,10 @@
         <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,10 +2404,10 @@
         <v>271</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,10 +2415,10 @@
         <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,10 +2426,10 @@
         <v>271</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,10 +2437,10 @@
         <v>271</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,10 +2448,10 @@
         <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,10 +2459,10 @@
         <v>271</v>
       </c>
       <c r="B107" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,10 +2470,10 @@
         <v>271</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,10 +2481,10 @@
         <v>271</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,10 +2492,10 @@
         <v>271</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,10 +2503,10 @@
         <v>271</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,10 +2514,10 @@
         <v>271</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,10 +2525,10 @@
         <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,10 +2536,10 @@
         <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,10 +2547,10 @@
         <v>271</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,10 +2558,10 @@
         <v>271</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,10 +2569,10 @@
         <v>271</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,10 +2580,10 @@
         <v>271</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,10 +2591,10 @@
         <v>271</v>
       </c>
       <c r="B119" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,10 +2602,10 @@
         <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,10 +2613,10 @@
         <v>271</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,10 +2624,10 @@
         <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,10 +2635,10 @@
         <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C123" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,10 +2646,10 @@
         <v>271</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,10 +2657,10 @@
         <v>271</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2650,10 +2668,10 @@
         <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,10 +2679,10 @@
         <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C127" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,10 +2690,10 @@
         <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2683,10 +2701,10 @@
         <v>271</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2712,10 @@
         <v>271</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,10 +2723,10 @@
         <v>271</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,10 +2734,10 @@
         <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,10 +2745,10 @@
         <v>271</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,10 +2756,10 @@
         <v>271</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,10 +2767,10 @@
         <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,54 +2778,54 @@
         <v>271</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2815,10 +2833,10 @@
         <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,10 +2844,10 @@
         <v>272</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,10 +2855,10 @@
         <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,10 +2866,10 @@
         <v>272</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2859,10 +2877,10 @@
         <v>272</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2870,10 +2888,10 @@
         <v>272</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2881,21 +2899,21 @@
         <v>272</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C148" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2903,21 +2921,21 @@
         <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C150" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,10 +2943,10 @@
         <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2936,10 +2954,10 @@
         <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C152" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,51 +2968,51 @@
         <v>102</v>
       </c>
       <c r="C153" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" t="s">
+        <v>102</v>
+      </c>
+      <c r="C155" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B154" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
         <v>113</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C156" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" t="s">
         <v>117</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C157" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>272</v>
-      </c>
-      <c r="B156" t="s">
-        <v>118</v>
-      </c>
-      <c r="C156" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>272</v>
-      </c>
-      <c r="B157" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3002,10 +3020,10 @@
         <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3013,10 +3031,10 @@
         <v>272</v>
       </c>
       <c r="B159" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C159" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3024,10 +3042,10 @@
         <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C160" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3035,10 +3053,10 @@
         <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3046,10 +3064,10 @@
         <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,10 +3075,10 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C163" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,10 +3086,10 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3079,10 +3097,10 @@
         <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3090,10 +3108,10 @@
         <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3101,10 +3119,10 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,10 +3130,10 @@
         <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3123,10 +3141,10 @@
         <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3134,10 +3152,10 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3145,10 +3163,10 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3156,10 +3174,10 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,10 +3185,10 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C173" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,10 +3196,10 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3189,10 +3207,10 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3200,10 +3218,10 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3211,10 +3229,10 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,10 +3240,10 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3233,10 +3251,10 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C179" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,10 +3262,10 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C180" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,10 +3273,10 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C181" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3266,10 +3284,10 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C182" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,10 +3295,10 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C183" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,10 +3306,10 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C184" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,10 +3317,10 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C185" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3310,10 +3328,10 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C186" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,10 +3339,10 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C187" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,10 +3350,10 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C188" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3343,10 +3361,10 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C189" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,7 +3375,7 @@
         <v>248</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3368,29 +3386,29 @@
         <v>248</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,10 +3416,10 @@
         <v>275</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3409,10 +3427,10 @@
         <v>275</v>
       </c>
       <c r="B195" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3420,10 +3438,10 @@
         <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C196" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3434,7 +3452,7 @@
         <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3445,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,7 +3474,7 @@
         <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3467,7 +3485,7 @@
         <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3478,7 +3496,7 @@
         <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,7 +3507,7 @@
         <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,7 +3518,7 @@
         <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3511,7 +3529,7 @@
         <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,7 +3540,7 @@
         <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3533,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3544,7 +3562,7 @@
         <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,7 +3573,7 @@
         <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3565,8 +3583,8 @@
       <c r="B209" t="s">
         <v>40</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>280</v>
+      <c r="C209" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3576,19 +3594,19 @@
       <c r="B210" t="s">
         <v>40</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>281</v>
+      <c r="C210" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>275</v>
       </c>
       <c r="B211" t="s">
-        <v>99</v>
-      </c>
-      <c r="C211" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,21 +3614,21 @@
         <v>275</v>
       </c>
       <c r="B212" t="s">
-        <v>106</v>
-      </c>
-      <c r="C212" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B213" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C213" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,21 +3636,21 @@
         <v>275</v>
       </c>
       <c r="B214" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C214" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C215" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,32 +3658,32 @@
         <v>275</v>
       </c>
       <c r="B216" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C216" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B217" t="s">
         <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>275</v>
       </c>
       <c r="B218" t="s">
         <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,18 +3694,18 @@
         <v>118</v>
       </c>
       <c r="C219" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B220" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C220" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3713,10 @@
         <v>275</v>
       </c>
       <c r="B221" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C221" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3724,10 @@
         <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C222" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3735,10 @@
         <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C223" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3746,10 @@
         <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C224" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3757,10 @@
         <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C225" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3768,10 @@
         <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C226" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3779,10 @@
         <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C227" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,10 +3790,10 @@
         <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C228" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,10 +3801,10 @@
         <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C229" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,10 +3812,10 @@
         <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C230" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,10 +3823,10 @@
         <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C231" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3834,10 @@
         <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C232" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3845,10 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3856,10 @@
         <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C234" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,7 +3870,7 @@
         <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,7 +3881,7 @@
         <v>248</v>
       </c>
       <c r="C236" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,7 +3892,7 @@
         <v>248</v>
       </c>
       <c r="C237" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,7 +3903,7 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,32 +3911,32 @@
         <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,7 +3958,7 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3951,7 +3969,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3962,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3984,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +4010,10 @@
         <v>276</v>
       </c>
       <c r="B248" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,10 +4021,10 @@
         <v>276</v>
       </c>
       <c r="B249" t="s">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4014,32 +4032,32 @@
         <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C250" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>276</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>277</v>
+      <c r="B251" t="s">
+        <v>193</v>
+      </c>
+      <c r="C251" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>276</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>278</v>
+      <c r="B252" t="s">
+        <v>202</v>
+      </c>
+      <c r="C252" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,10 +4065,10 @@
         <v>276</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,10 +4076,10 @@
         <v>276</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,10 +4087,10 @@
         <v>276</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4080,76 +4098,76 @@
         <v>276</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>274</v>
-      </c>
-      <c r="B257" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>274</v>
-      </c>
-      <c r="B258" t="s">
-        <v>28</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
+        <v>276</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>274</v>
-      </c>
-      <c r="B259" t="s">
-        <v>31</v>
-      </c>
-      <c r="C259" t="s">
-        <v>31</v>
+        <v>276</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>274</v>
-      </c>
-      <c r="B260" t="s">
-        <v>57</v>
-      </c>
-      <c r="C260" t="s">
-        <v>57</v>
+        <v>276</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>274</v>
-      </c>
-      <c r="B261" t="s">
-        <v>92</v>
-      </c>
-      <c r="C261" t="s">
-        <v>92</v>
+        <v>276</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B262" t="s">
-        <v>96</v>
-      </c>
-      <c r="C262" t="s">
-        <v>96</v>
+      <c r="A262" t="s">
+        <v>271</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4157,21 +4175,21 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C264" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4179,10 +4197,10 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="C265" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4190,10 +4208,10 @@
         <v>274</v>
       </c>
       <c r="B266" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="C266" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4201,21 +4219,21 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="C267" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="C268" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,21 +4241,21 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C269" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="C270" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,10 +4263,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="C271" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,10 +4274,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C272" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,10 +4285,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="C273" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,10 +4296,10 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,16 +4307,82 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>203</v>
+      </c>
+      <c r="C275" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>204</v>
+      </c>
+      <c r="C276" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>274</v>
+      </c>
+      <c r="B277" t="s">
+        <v>248</v>
+      </c>
+      <c r="C277" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278" t="s">
+        <v>259</v>
+      </c>
+      <c r="C278" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>274</v>
+      </c>
+      <c r="B279" t="s">
+        <v>261</v>
+      </c>
+      <c r="C279" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>274</v>
+      </c>
+      <c r="B280" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>274</v>
+      </c>
+      <c r="B281" t="s">
         <v>231</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C281" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C273">
-    <sortCondition ref="A2:A273"/>
-    <sortCondition ref="B2:B273"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C279">
+    <sortCondition ref="A3:A279"/>
+    <sortCondition ref="B3:B279"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37B14EC-0556-4589-B3F9-160687E9ECDE}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C29850D-3BE7-4FDD-86D0-C9F569E506FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="292">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>Summer Olympics 2020</t>
+  </si>
+  <si>
+    <t>Tonga</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4161,24 +4164,24 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>274</v>
-      </c>
-      <c r="B263" t="s">
-        <v>6</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6</v>
+        <v>271</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +4189,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +4200,10 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C265" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +4211,10 @@
         <v>274</v>
       </c>
       <c r="B266" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,54 +4222,54 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
+        <v>57</v>
+      </c>
+      <c r="C267" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268" t="s">
         <v>92</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>96</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>274</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>108</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C270" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>118</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C271" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>139</v>
-      </c>
-      <c r="C271" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,10 +4277,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C272" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4288,7 +4291,7 @@
         <v>188</v>
       </c>
       <c r="C273" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,7 +4302,7 @@
         <v>188</v>
       </c>
       <c r="C274" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,10 +4310,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C275" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,10 +4321,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,10 +4332,10 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C277" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,10 +4343,10 @@
         <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C278" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,10 +4354,10 @@
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C279" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,10 +4365,10 @@
         <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="C280" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,16 +4376,27 @@
         <v>274</v>
       </c>
       <c r="B281" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>274</v>
+      </c>
+      <c r="B282" t="s">
         <v>231</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C282" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C279">
-    <sortCondition ref="A3:A279"/>
-    <sortCondition ref="B3:B279"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C280">
+    <sortCondition ref="A3:A280"/>
+    <sortCondition ref="B3:B280"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C29850D-3BE7-4FDD-86D0-C9F569E506FE}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF85D1F-B496-4F26-AE11-4910572C76BD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="294">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -909,6 +909,12 @@
   </si>
   <si>
     <t>Tonga</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Winter Olympics 2022</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4393,6 +4399,28 @@
         <v>231</v>
       </c>
     </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C280">
     <sortCondition ref="A3:A280"/>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF85D1F-B496-4F26-AE11-4910572C76BD}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{933334D5-DE2F-4DBA-BB01-558D89A75F77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="296">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -915,6 +915,12 @@
   </si>
   <si>
     <t>Winter Olympics 2022</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Jersey</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3422,24 +3428,24 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>275</v>
-      </c>
-      <c r="B194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" t="s">
-        <v>5</v>
+        <v>272</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>275</v>
-      </c>
-      <c r="B195" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" t="s">
-        <v>19</v>
+        <v>272</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3447,10 +3453,10 @@
         <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,10 +3464,10 @@
         <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3469,10 +3475,10 @@
         <v>275</v>
       </c>
       <c r="B198" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C198" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3489,7 @@
         <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,7 +3500,7 @@
         <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3511,7 @@
         <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3533,7 @@
         <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,7 +3544,7 @@
         <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,7 +3566,7 @@
         <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,7 +3577,7 @@
         <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,7 +3588,7 @@
         <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,7 +3599,7 @@
         <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,7 +3610,7 @@
         <v>40</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,8 +3620,8 @@
       <c r="B211" t="s">
         <v>40</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>280</v>
+      <c r="C211" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,19 +3631,19 @@
       <c r="B212" t="s">
         <v>40</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>281</v>
+      <c r="C212" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>275</v>
       </c>
       <c r="B213" t="s">
-        <v>99</v>
-      </c>
-      <c r="C213" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,21 +3651,21 @@
         <v>275</v>
       </c>
       <c r="B214" t="s">
-        <v>106</v>
-      </c>
-      <c r="C214" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C215" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3667,21 +3673,21 @@
         <v>275</v>
       </c>
       <c r="B216" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C216" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>275</v>
       </c>
       <c r="B217" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C217" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,32 +3695,32 @@
         <v>275</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C218" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B219" t="s">
         <v>118</v>
       </c>
       <c r="C219" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>275</v>
       </c>
       <c r="B220" t="s">
         <v>118</v>
       </c>
       <c r="C220" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,18 +3731,18 @@
         <v>118</v>
       </c>
       <c r="C221" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C222" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,10 +3750,10 @@
         <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C223" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,10 +3761,10 @@
         <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C224" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,10 +3772,10 @@
         <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C225" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3777,10 +3783,10 @@
         <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C226" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,10 +3794,10 @@
         <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C227" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3799,10 +3805,10 @@
         <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C228" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3810,10 +3816,10 @@
         <v>275</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C229" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3821,10 +3827,10 @@
         <v>275</v>
       </c>
       <c r="B230" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C230" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3832,10 +3838,10 @@
         <v>275</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C231" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3843,10 +3849,10 @@
         <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C232" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3854,10 +3860,10 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C233" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3865,10 +3871,10 @@
         <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C234" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3876,10 +3882,10 @@
         <v>275</v>
       </c>
       <c r="B235" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C235" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3887,10 +3893,10 @@
         <v>275</v>
       </c>
       <c r="B236" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C236" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,7 +3907,7 @@
         <v>248</v>
       </c>
       <c r="C237" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,7 +3918,7 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,7 +3929,7 @@
         <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,7 +3940,7 @@
         <v>248</v>
       </c>
       <c r="C240" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3942,32 +3948,32 @@
         <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C241" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,7 +3995,7 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,7 +4017,7 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4022,7 +4028,7 @@
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,7 +4039,7 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4041,10 +4047,10 @@
         <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4052,10 +4058,10 @@
         <v>276</v>
       </c>
       <c r="B251" t="s">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4063,32 +4069,32 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C252" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>276</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>277</v>
+      <c r="B253" t="s">
+        <v>193</v>
+      </c>
+      <c r="C253" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>276</v>
       </c>
-      <c r="B254" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>278</v>
+      <c r="B254" t="s">
+        <v>202</v>
+      </c>
+      <c r="C254" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4096,10 +4102,10 @@
         <v>276</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4107,10 +4113,10 @@
         <v>276</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4118,10 +4124,10 @@
         <v>276</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,10 +4135,10 @@
         <v>276</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,10 +4146,10 @@
         <v>276</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,10 +4157,10 @@
         <v>276</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4162,10 +4168,10 @@
         <v>276</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,43 +4179,43 @@
         <v>276</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>274</v>
-      </c>
-      <c r="B264" t="s">
-        <v>6</v>
-      </c>
-      <c r="C264" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>274</v>
-      </c>
-      <c r="B265" t="s">
-        <v>28</v>
-      </c>
-      <c r="C265" t="s">
-        <v>28</v>
+        <v>271</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,10 +4223,10 @@
         <v>274</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4228,10 +4234,10 @@
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C267" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4239,21 +4245,21 @@
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C268" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C269" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,10 +4267,10 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C270" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4272,10 +4278,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C271" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4283,21 +4289,21 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C272" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="C273" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4305,10 +4311,10 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C274" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,7 +4325,7 @@
         <v>188</v>
       </c>
       <c r="C275" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4327,10 +4333,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C276" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,10 +4344,10 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C277" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4349,10 +4355,10 @@
         <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C278" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4360,10 +4366,10 @@
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="C279" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4371,10 +4377,10 @@
         <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C280" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4382,10 +4388,10 @@
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4393,38 +4399,60 @@
         <v>274</v>
       </c>
       <c r="B282" t="s">
+        <v>261</v>
+      </c>
+      <c r="C282" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>274</v>
+      </c>
+      <c r="B283" t="s">
+        <v>25</v>
+      </c>
+      <c r="C283" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>274</v>
+      </c>
+      <c r="B284" t="s">
         <v>231</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C284" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B285" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B284" s="3" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C280">
-    <sortCondition ref="A3:A280"/>
-    <sortCondition ref="B3:B280"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C282">
+    <sortCondition ref="A3:A282"/>
+    <sortCondition ref="B3:B282"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Continent_Country.xlsx
+++ b/Continent_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987dcad8592f57a0/700-Work/jupyter/Health/Coronavirus/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{933334D5-DE2F-4DBA-BB01-558D89A75F77}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{D9F3FD09-4C57-FF43-87FF-03080999AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E010A97D-521B-7045-80C6-35FFC1195D7D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30060" windowHeight="19400" xr2:uid="{C5BE7EE5-8E31-6740-B80E-C6C9ECC2C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="301">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -921,6 +921,21 @@
   </si>
   <si>
     <t>Jersey</t>
+  </si>
+  <si>
+    <t>Korea, North</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
   </si>
 </sst>
 </file>
@@ -1292,18 +1307,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12FE05-CC76-F746-94D0-4CAB92E5C99E}">
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:C195"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>270</v>
       </c>
@@ -1314,7 +1329,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -1325,7 +1340,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -1336,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>273</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -1358,7 +1373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>273</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -1380,7 +1395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>273</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -1402,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -1413,7 +1428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>273</v>
       </c>
@@ -1424,7 +1439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>273</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>273</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>273</v>
       </c>
@@ -1468,7 +1483,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>273</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>273</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>273</v>
       </c>
@@ -1501,7 +1516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>273</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>273</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>273</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>273</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>273</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>273</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>273</v>
       </c>
@@ -1589,7 +1604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>273</v>
       </c>
@@ -1611,7 +1626,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>273</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>273</v>
       </c>
@@ -1633,7 +1648,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>273</v>
       </c>
@@ -1644,7 +1659,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>273</v>
       </c>
@@ -1655,7 +1670,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>273</v>
       </c>
@@ -1666,7 +1681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -1677,7 +1692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>273</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>273</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>273</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>273</v>
       </c>
@@ -1721,7 +1736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>273</v>
       </c>
@@ -1732,7 +1747,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>273</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>273</v>
       </c>
@@ -1754,7 +1769,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>273</v>
       </c>
@@ -1765,7 +1780,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>273</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>273</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>273</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>273</v>
       </c>
@@ -1809,7 +1824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>273</v>
       </c>
@@ -1820,7 +1835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>273</v>
       </c>
@@ -1831,7 +1846,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>273</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -1853,7 +1868,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>273</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>273</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>273</v>
       </c>
@@ -1897,7 +1912,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>273</v>
       </c>
@@ -1908,7 +1923,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>273</v>
       </c>
@@ -1919,7 +1934,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -1930,7 +1945,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>273</v>
       </c>
@@ -1941,7 +1956,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -1952,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>271</v>
       </c>
@@ -1963,7 +1978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -1974,7 +1989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>271</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>271</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -2018,7 +2033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>271</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>271</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -2051,7 +2066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>271</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -2073,7 +2088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>271</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>271</v>
       </c>
@@ -2095,7 +2110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>271</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>271</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>271</v>
       </c>
@@ -2139,7 +2154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>271</v>
       </c>
@@ -2150,7 +2165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>271</v>
       </c>
@@ -2161,7 +2176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>271</v>
       </c>
@@ -2172,7 +2187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>271</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -2194,7 +2209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>271</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -2216,7 +2231,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>271</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>271</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>271</v>
       </c>
@@ -2249,7 +2264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>271</v>
       </c>
@@ -2260,7 +2275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>271</v>
       </c>
@@ -2271,7 +2286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -2282,7 +2297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -2293,7 +2308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -2304,7 +2319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>271</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>271</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>271</v>
       </c>
@@ -2337,7 +2352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>271</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>271</v>
       </c>
@@ -2359,7 +2374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>271</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>271</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>271</v>
       </c>
@@ -2392,7 +2407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>271</v>
       </c>
@@ -2403,7 +2418,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>271</v>
       </c>
@@ -2414,7 +2429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>271</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>271</v>
       </c>
@@ -2458,7 +2473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>271</v>
       </c>
@@ -2469,7 +2484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>271</v>
       </c>
@@ -2480,7 +2495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>271</v>
       </c>
@@ -2491,7 +2506,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>271</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>271</v>
       </c>
@@ -2513,7 +2528,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -2524,469 +2539,469 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>271</v>
       </c>
       <c r="B112" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" t="s">
         <v>160</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>271</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>271</v>
+      </c>
+      <c r="B115" t="s">
         <v>161</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>271</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>271</v>
+      </c>
+      <c r="B116" t="s">
         <v>163</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>271</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" t="s">
         <v>173</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>271</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" t="s">
         <v>174</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>271</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" t="s">
         <v>182</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>271</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120" t="s">
         <v>187</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>271</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>271</v>
+      </c>
+      <c r="B121" t="s">
         <v>199</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>271</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" t="s">
         <v>200</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>271</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123" t="s">
         <v>205</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>271</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" t="s">
         <v>208</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>271</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" t="s">
         <v>210</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>271</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" t="s">
         <v>217</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" t="s">
         <v>220</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>271</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" t="s">
         <v>222</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>271</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>271</v>
+      </c>
+      <c r="B129" t="s">
         <v>229</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>271</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" t="s">
         <v>234</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>271</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" t="s">
         <v>235</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>271</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
         <v>236</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" t="s">
         <v>238</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" t="s">
         <v>239</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>271</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
         <v>247</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s">
         <v>260</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>271</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" t="s">
         <v>262</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
         <v>263</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" t="s">
         <v>265</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
         <v>40</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
         <v>244</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>272</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" t="s">
         <v>1</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>272</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" t="s">
         <v>3</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
+      <c r="B144" t="s">
         <v>7</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>272</v>
-      </c>
-      <c r="B144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>272</v>
+      </c>
+      <c r="B145" t="s">
         <v>17</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>272</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" t="s">
         <v>18</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>272</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" t="s">
         <v>23</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>272</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" t="s">
         <v>24</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>272</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>272</v>
+      </c>
+      <c r="B149" t="s">
         <v>29</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>272</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" t="s">
         <v>33</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B151" t="s">
         <v>98</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>272</v>
-      </c>
-      <c r="B151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>272</v>
+      </c>
+      <c r="B152" t="s">
         <v>100</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>272</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>272</v>
+      </c>
+      <c r="B153" t="s">
         <v>101</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>272</v>
-      </c>
-      <c r="B153" t="s">
-        <v>102</v>
-      </c>
-      <c r="C153" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>272</v>
       </c>
@@ -2994,10 +3009,10 @@
         <v>102</v>
       </c>
       <c r="C154" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -3005,395 +3020,395 @@
         <v>102</v>
       </c>
       <c r="C155" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" t="s">
         <v>113</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B158" t="s">
         <v>117</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>272</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>272</v>
+      </c>
+      <c r="B159" t="s">
         <v>118</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>272</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>272</v>
+      </c>
+      <c r="B160" t="s">
         <v>131</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>272</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>272</v>
+      </c>
+      <c r="B161" t="s">
         <v>132</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>272</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" t="s">
         <v>134</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>272</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" t="s">
         <v>143</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>272</v>
+      </c>
+      <c r="B164" t="s">
         <v>144</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>272</v>
-      </c>
-      <c r="B164" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>272</v>
+      </c>
+      <c r="B165" t="s">
         <v>149</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>272</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>272</v>
+      </c>
+      <c r="B166" t="s">
         <v>151</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>272</v>
-      </c>
-      <c r="B166" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>272</v>
+      </c>
+      <c r="B167" t="s">
         <v>158</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>272</v>
-      </c>
-      <c r="B167" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" t="s">
         <v>162</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>272</v>
-      </c>
-      <c r="B168" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>272</v>
+      </c>
+      <c r="B169" t="s">
         <v>167</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>272</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>272</v>
+      </c>
+      <c r="B170" t="s">
         <v>168</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>272</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>272</v>
+      </c>
+      <c r="B171" t="s">
         <v>169</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>272</v>
-      </c>
-      <c r="B171" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>272</v>
+      </c>
+      <c r="B172" t="s">
         <v>176</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>272</v>
-      </c>
-      <c r="B172" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173" t="s">
         <v>180</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>272</v>
-      </c>
-      <c r="B173" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" t="s">
         <v>181</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>272</v>
-      </c>
-      <c r="B174" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>272</v>
+      </c>
+      <c r="B175" t="s">
         <v>183</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>272</v>
-      </c>
-      <c r="B175" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>272</v>
+      </c>
+      <c r="B176" t="s">
         <v>188</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>272</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" t="s">
         <v>197</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>272</v>
-      </c>
-      <c r="B177" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>272</v>
+      </c>
+      <c r="B178" t="s">
         <v>198</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>272</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>272</v>
+      </c>
+      <c r="B179" t="s">
         <v>206</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>272</v>
-      </c>
-      <c r="B179" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>272</v>
+      </c>
+      <c r="B180" t="s">
         <v>207</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>272</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" t="s">
         <v>209</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>272</v>
-      </c>
-      <c r="B181" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>272</v>
+      </c>
+      <c r="B182" t="s">
         <v>215</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>272</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>272</v>
+      </c>
+      <c r="B183" t="s">
         <v>219</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>272</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>272</v>
+      </c>
+      <c r="B184" t="s">
         <v>223</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>272</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>272</v>
+      </c>
+      <c r="B185" t="s">
         <v>224</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>272</v>
-      </c>
-      <c r="B185" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>272</v>
+      </c>
+      <c r="B186" t="s">
         <v>228</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>272</v>
-      </c>
-      <c r="B186" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>272</v>
+      </c>
+      <c r="B187" t="s">
         <v>232</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>272</v>
-      </c>
-      <c r="B187" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" t="s">
         <v>233</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>272</v>
-      </c>
-      <c r="B188" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" t="s">
         <v>243</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>272</v>
-      </c>
-      <c r="B189" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>272</v>
+      </c>
+      <c r="B190" t="s">
         <v>246</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>272</v>
-      </c>
-      <c r="B190" t="s">
-        <v>248</v>
-      </c>
-      <c r="C190" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -3401,10 +3416,10 @@
         <v>248</v>
       </c>
       <c r="C191" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -3412,10 +3427,10 @@
         <v>248</v>
       </c>
       <c r="C192" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>272</v>
       </c>
@@ -3423,21 +3438,21 @@
         <v>248</v>
       </c>
       <c r="C193" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>272</v>
+      </c>
+      <c r="B194" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>272</v>
-      </c>
-      <c r="B194" s="3" t="s">
+      <c r="C194" t="s">
         <v>248</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>272</v>
       </c>
@@ -3445,54 +3460,54 @@
         <v>248</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>275</v>
-      </c>
-      <c r="B196" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>275</v>
+      </c>
+      <c r="B197" t="s">
         <v>5</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>275</v>
-      </c>
-      <c r="B197" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>275</v>
+      </c>
+      <c r="B198" t="s">
         <v>19</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>275</v>
-      </c>
-      <c r="B198" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>275</v>
+      </c>
+      <c r="B199" t="s">
         <v>22</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>275</v>
-      </c>
-      <c r="B199" t="s">
-        <v>40</v>
-      </c>
-      <c r="C199" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>275</v>
       </c>
@@ -3500,10 +3515,10 @@
         <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>275</v>
       </c>
@@ -3511,10 +3526,10 @@
         <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>275</v>
       </c>
@@ -3522,10 +3537,10 @@
         <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>275</v>
       </c>
@@ -3533,10 +3548,10 @@
         <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>275</v>
       </c>
@@ -3544,10 +3559,10 @@
         <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -3555,10 +3570,10 @@
         <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>275</v>
       </c>
@@ -3566,10 +3581,10 @@
         <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>275</v>
       </c>
@@ -3577,10 +3592,10 @@
         <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>275</v>
       </c>
@@ -3588,10 +3603,10 @@
         <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>275</v>
       </c>
@@ -3599,10 +3614,10 @@
         <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>275</v>
       </c>
@@ -3610,10 +3625,10 @@
         <v>40</v>
       </c>
       <c r="C210" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>275</v>
       </c>
@@ -3621,10 +3636,10 @@
         <v>40</v>
       </c>
       <c r="C211" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>275</v>
       </c>
@@ -3632,21 +3647,21 @@
         <v>40</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>275</v>
       </c>
       <c r="B213" t="s">
         <v>40</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>275</v>
       </c>
@@ -3654,76 +3669,76 @@
         <v>40</v>
       </c>
       <c r="C214" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>275</v>
+      </c>
+      <c r="B215" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B215" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B216" t="s">
         <v>99</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>275</v>
-      </c>
-      <c r="B216" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" t="s">
         <v>106</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>275</v>
-      </c>
-      <c r="B217" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>275</v>
+      </c>
+      <c r="B218" t="s">
         <v>107</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>275</v>
-      </c>
-      <c r="B218" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>275</v>
+      </c>
+      <c r="B219" t="s">
         <v>110</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C219" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B219" t="s">
-        <v>118</v>
-      </c>
-      <c r="C219" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B220" t="s">
         <v>118</v>
       </c>
       <c r="C220" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>275</v>
       </c>
@@ -3731,186 +3746,186 @@
         <v>118</v>
       </c>
       <c r="C221" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>275</v>
       </c>
       <c r="B222" t="s">
         <v>118</v>
       </c>
       <c r="C222" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B223" t="s">
         <v>118</v>
       </c>
       <c r="C223" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>275</v>
+      </c>
+      <c r="B224" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>275</v>
-      </c>
-      <c r="B224" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>275</v>
+      </c>
+      <c r="B225" t="s">
         <v>135</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>275</v>
-      </c>
-      <c r="B225" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>275</v>
+      </c>
+      <c r="B226" t="s">
         <v>136</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>275</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>275</v>
+      </c>
+      <c r="B227" t="s">
         <v>140</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>275</v>
-      </c>
-      <c r="B227" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>275</v>
+      </c>
+      <c r="B228" t="s">
         <v>142</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>275</v>
-      </c>
-      <c r="B228" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>275</v>
+      </c>
+      <c r="B229" t="s">
         <v>152</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>275</v>
-      </c>
-      <c r="B229" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>275</v>
+      </c>
+      <c r="B230" t="s">
         <v>179</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>275</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231" t="s">
         <v>188</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>275</v>
-      </c>
-      <c r="B231" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>275</v>
+      </c>
+      <c r="B232" t="s">
         <v>194</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>275</v>
-      </c>
-      <c r="B232" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>275</v>
+      </c>
+      <c r="B233" t="s">
         <v>201</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>275</v>
-      </c>
-      <c r="B233" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>275</v>
+      </c>
+      <c r="B234" t="s">
         <v>212</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>275</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>275</v>
+      </c>
+      <c r="B235" t="s">
         <v>213</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>275</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>275</v>
+      </c>
+      <c r="B236" t="s">
         <v>214</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>275</v>
-      </c>
-      <c r="B236" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>275</v>
+      </c>
+      <c r="B237" t="s">
         <v>241</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>275</v>
-      </c>
-      <c r="B237" t="s">
-        <v>248</v>
-      </c>
-      <c r="C237" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>275</v>
       </c>
@@ -3918,10 +3933,10 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>275</v>
       </c>
@@ -3929,10 +3944,10 @@
         <v>248</v>
       </c>
       <c r="C239" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>275</v>
       </c>
@@ -3940,10 +3955,10 @@
         <v>248</v>
       </c>
       <c r="C240" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>275</v>
       </c>
@@ -3951,10 +3966,10 @@
         <v>248</v>
       </c>
       <c r="C241" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>275</v>
       </c>
@@ -3962,32 +3977,32 @@
         <v>248</v>
       </c>
       <c r="C242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>275</v>
+      </c>
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>275</v>
-      </c>
-      <c r="B243" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>275</v>
+      </c>
+      <c r="B244" t="s">
         <v>244</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>276</v>
-      </c>
-      <c r="B244" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>276</v>
       </c>
@@ -3995,10 +4010,10 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>276</v>
       </c>
@@ -4006,10 +4021,10 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>276</v>
       </c>
@@ -4017,10 +4032,10 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>276</v>
       </c>
@@ -4028,10 +4043,10 @@
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>276</v>
       </c>
@@ -4039,10 +4054,10 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>276</v>
       </c>
@@ -4050,10 +4065,10 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>276</v>
       </c>
@@ -4061,274 +4076,274 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>276</v>
       </c>
       <c r="B253" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="C253" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>276</v>
       </c>
       <c r="B254" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C254" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
-      <c r="B255" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>202</v>
+      </c>
+      <c r="C255" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>276</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>276</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>276</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>276</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>276</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>276</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>276</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>276</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>276</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>271</v>
-      </c>
-      <c r="B265" s="3" t="s">
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>274</v>
-      </c>
-      <c r="B266" t="s">
-        <v>6</v>
-      </c>
-      <c r="C266" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C268" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C269" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>274</v>
       </c>
       <c r="B270" t="s">
+        <v>57</v>
+      </c>
+      <c r="C270" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" t="s">
         <v>92</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C271" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>96</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C272" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>274</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B273" t="s">
         <v>108</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C273" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>118</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C274" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>274</v>
-      </c>
-      <c r="B274" t="s">
-        <v>139</v>
-      </c>
-      <c r="C274" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C275" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4336,10 +4351,10 @@
         <v>188</v>
       </c>
       <c r="C276" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>274</v>
       </c>
@@ -4347,112 +4362,167 @@
         <v>188</v>
       </c>
       <c r="C277" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C278" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C279" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C280" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C281" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>274</v>
       </c>
       <c r="B282" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C282" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>274</v>
       </c>
       <c r="B283" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="C283" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>274</v>
       </c>
       <c r="B284" t="s">
+        <v>25</v>
+      </c>
+      <c r="C284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>274</v>
+      </c>
+      <c r="B285" t="s">
         <v>231</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C285" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B286" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B286" s="3" t="s">
+    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>293</v>
       </c>
     </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>276</v>
+      </c>
+      <c r="B288" t="s">
+        <v>297</v>
+      </c>
+      <c r="C288" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>276</v>
+      </c>
+      <c r="B289" t="s">
+        <v>193</v>
+      </c>
+      <c r="C289" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>276</v>
+      </c>
+      <c r="B290" t="s">
+        <v>299</v>
+      </c>
+      <c r="C290" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>276</v>
+      </c>
+      <c r="B291" t="s">
+        <v>248</v>
+      </c>
+      <c r="C291" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C282">
-    <sortCondition ref="A3:A282"/>
-    <sortCondition ref="B3:B282"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C283">
+    <sortCondition ref="A3:A283"/>
+    <sortCondition ref="B3:B283"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
